--- a/output/StructureDefinition-BRRacaCorEtnia-1.0.xlsx
+++ b/output/StructureDefinition-BRRacaCorEtnia-1.0.xlsx
@@ -965,42 +965,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.62890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.94921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.0625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="213.390625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="17.05078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="22.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="43.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-BRRacaCorEtnia-1.0.xlsx
+++ b/output/StructureDefinition-BRRacaCorEtnia-1.0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="209">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.saude.gov.br/fhir/r4/StructureDefinition/BRRacaCorEtnia-1.0</t>
+    <t>http://br-ipes.com/fhir/StructureDefinition/BRRacaCorEtnia-1.0</t>
   </si>
   <si>
     <t>Version</t>
@@ -648,6 +648,9 @@
   </si>
   <si>
     <t>Extension.extension:indigenousEthnicity.value[x].text</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/StructureDefinition/BRRacaCorEtnia-1.0</t>
   </si>
   <si>
     <t>base64Binary
@@ -4830,7 +4833,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>18</v>
@@ -4918,7 +4921,7 @@
         <v>18</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>119</v>
